--- a/data/trans_camb/P16A03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -2,26</t>
+          <t>-7,16; -1,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -2,27</t>
+          <t>-7,38; -2,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; -0,92</t>
+          <t>-6,09; -0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,7</t>
+          <t>-1,87; 5,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,44</t>
+          <t>-4,98; 1,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,7</t>
+          <t>-2,79; 2,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,17</t>
+          <t>-4,08; 0,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -1,39</t>
+          <t>-5,44; -1,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,05</t>
+          <t>-4,21; 0,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,62; -44,28</t>
+          <t>-92,61; -36,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,02; -47,95</t>
+          <t>-93,43; -39,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,14; -14,0</t>
+          <t>-80,91; -19,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 169,96</t>
+          <t>-31,37; 157,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,42; 64,88</t>
+          <t>-72,26; 49,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 83,2</t>
+          <t>-41,32; 98,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,52; 8,7</t>
+          <t>-61,91; 3,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,16; -30,99</t>
+          <t>-79,77; -29,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,2; 1,82</t>
+          <t>-59,9; 4,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,64</t>
+          <t>-1,16; 2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,18</t>
+          <t>-1,04; 2,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,77</t>
+          <t>-1,23; 1,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,58</t>
+          <t>0,56; 8,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,28</t>
+          <t>-2,18; 3,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,89</t>
+          <t>-2,88; 1,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,05</t>
+          <t>-0,07; 4,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,56</t>
+          <t>-1,17; 2,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,38</t>
+          <t>-1,6; 1,28</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 837,66</t>
+          <t>-82,09; 785,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,7; 679,3</t>
+          <t>-79,66; 748,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 286,5</t>
+          <t>3,67; 344,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 173,87</t>
+          <t>-41,34; 187,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,85; 88,0</t>
+          <t>-55,0; 93,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 246,26</t>
+          <t>-2,8; 291,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 158,86</t>
+          <t>-38,87; 157,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 102,54</t>
+          <t>-47,81; 95,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,04</t>
+          <t>-2,49; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -0,12</t>
+          <t>-3,24; -0,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,36</t>
+          <t>-3,12; 1,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,12</t>
+          <t>-9,07; 0,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 3,26</t>
+          <t>-7,56; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,17</t>
+          <t>-3,93; 6,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,62</t>
+          <t>-3,07; 0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,07</t>
+          <t>-3,38; 0,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,58</t>
+          <t>-3,35; 1,92</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,09; 72,43</t>
+          <t>-75,12; 64,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,2; 12,03</t>
+          <t>-90,41; 17,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 73,39</t>
+          <t>-85,09; 53,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,89; 37,2</t>
+          <t>-76,8; 26,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 86,8</t>
+          <t>-71,11; 76,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 155,9</t>
+          <t>-36,53; 143,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 26,86</t>
+          <t>-64,4; 21,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,49; 8,32</t>
+          <t>-71,84; 4,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 47,28</t>
+          <t>-69,13; 59,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,41</t>
+          <t>-1,4; 0,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,13</t>
+          <t>-0,9; 1,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,9</t>
+          <t>-0,25; 1,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,02</t>
+          <t>-0,8; 4,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,62</t>
+          <t>-2,5; 1,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,34</t>
+          <t>-3,35; 1,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,43</t>
+          <t>-0,68; 1,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,03</t>
+          <t>-0,99; 1,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,4</t>
+          <t>-0,79; 1,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,18; 39,92</t>
+          <t>-66,29; 44,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 111,29</t>
+          <t>-45,59; 105,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 181,57</t>
+          <t>-12,59; 188,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 113,44</t>
+          <t>-16,11; 114,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 52,48</t>
+          <t>-45,84; 53,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 36,09</t>
+          <t>-64,55; 28,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 69,44</t>
+          <t>-22,75; 66,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 45,29</t>
+          <t>-32,07; 48,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 66,79</t>
+          <t>-25,93; 65,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,62</t>
+          <t>-3,29; 0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,34</t>
+          <t>-3,39; 0,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,39</t>
+          <t>-1,94; 2,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,0</t>
+          <t>0,82; 5,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,26</t>
+          <t>-1,82; 2,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,71</t>
+          <t>-0,44; 3,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,14</t>
+          <t>-0,26; 3,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,87</t>
+          <t>-1,94; 0,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,87</t>
+          <t>-0,23; 2,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-83,57; 62,19</t>
+          <t>-83,41; 81,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,74; 43,64</t>
+          <t>-83,91; 52,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 176,77</t>
+          <t>-52,18; 252,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,03; 244,66</t>
+          <t>17,53; 234,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 92,1</t>
+          <t>-40,03; 110,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 132,25</t>
+          <t>-9,26; 143,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 129,13</t>
+          <t>-7,62; 135,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 37,69</t>
+          <t>-47,98; 43,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 127,87</t>
+          <t>-7,54; 122,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,86</t>
+          <t>-0,27; 2,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,0</t>
+          <t>-0,64; 0,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,93</t>
+          <t>-0,62; 4,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,23</t>
+          <t>-3,79; 0,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -0,54</t>
+          <t>-4,46; -0,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,9</t>
+          <t>-3,38; 0,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,33</t>
+          <t>-2,93; 0,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,68</t>
+          <t>-3,64; -0,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,62</t>
+          <t>-2,95; 0,39</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,1; 4,7</t>
+          <t>-49,04; 3,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,73; -8,38</t>
+          <t>-57,18; -7,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 17,17</t>
+          <t>-41,91; 12,04</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 7,63</t>
+          <t>-45,62; 8,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-57,43; -13,24</t>
+          <t>-57,28; -10,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 13,79</t>
+          <t>-45,61; 8,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; -0,24</t>
+          <t>-1,62; -0,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,25</t>
+          <t>-1,6; -0,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,48</t>
+          <t>-0,92; 0,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,82</t>
+          <t>-0,42; 1,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; -0,08</t>
+          <t>-2,15; -0,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,69</t>
+          <t>-1,59; 0,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,56</t>
+          <t>-0,73; 0,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,43</t>
+          <t>-1,72; -0,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,3</t>
+          <t>-1,03; 0,34</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-61,15; -11,69</t>
+          <t>-60,2; -9,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-61,28; -12,94</t>
+          <t>-61,0; -12,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 26,69</t>
+          <t>-35,4; 28,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 38,44</t>
+          <t>-7,18; 37,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,12; -1,79</t>
+          <t>-37,08; -1,65</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 14,32</t>
+          <t>-27,15; 12,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 16,18</t>
+          <t>-18,1; 16,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -12,05</t>
+          <t>-41,51; -12,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 8,52</t>
+          <t>-25,19; 9,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
